--- a/tax_deficit_simulator/data/gdpgrowth.xlsx
+++ b/tax_deficit_simulator/data/gdpgrowth.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>CountryGroupName</t>
   </si>
@@ -96,6 +96,18 @@
     <t>upreur2119</t>
   </si>
   <si>
+    <t>uprusd2221</t>
+  </si>
+  <si>
+    <t>upreur2221</t>
+  </si>
+  <si>
+    <t>uprusd2220</t>
+  </si>
+  <si>
+    <t>upreur2220</t>
+  </si>
+  <si>
     <t>uprusd2116</t>
   </si>
   <si>
@@ -118,6 +130,12 @@
   </si>
   <si>
     <t>upreur2121</t>
+  </si>
+  <si>
+    <t>uprusd2122</t>
+  </si>
+  <si>
+    <t>upreur2122</t>
   </si>
   <si>
     <t>uprusd2016</t>
@@ -175,7 +193,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK3"/>
+  <dimension ref="A1:AQ3"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -290,6 +308,24 @@
       <c r="AK1" t="s">
         <v>38</v>
       </c>
+      <c r="AL1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -359,48 +395,66 @@
         <v>1.1172562837600708</v>
       </c>
       <c r="W2" s="1">
-        <v>1.059857964515686</v>
+        <v>1.0789568424224854</v>
       </c>
       <c r="X2" s="1">
         <v>1.0863285064697266</v>
       </c>
       <c r="Y2" s="1">
-        <v>1.010019063949585</v>
+        <v>1.0282199382781982</v>
       </c>
       <c r="Z2" s="1">
+        <v>1.0786737203598022</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>1.1396746635437012</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>1.2051550149917603</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>1.2296597957611084</v>
+      </c>
+      <c r="AD2" s="1">
         <v>1.246624231338501</v>
       </c>
-      <c r="AA2" s="1">
-        <v>1.1460388898849487</v>
-      </c>
-      <c r="AB2" s="1">
+      <c r="AE2" s="1">
+        <v>1.1666908264160156</v>
+      </c>
+      <c r="AF2" s="1">
         <v>1.174602746963501</v>
       </c>
-      <c r="AC2" s="1">
-        <v>1.1020495891571045</v>
-      </c>
-      <c r="AD2" s="1">
+      <c r="AG2" s="1">
+        <v>1.1219087839126587</v>
+      </c>
+      <c r="AH2" s="1">
         <v>1.105394721031189</v>
       </c>
-      <c r="AE2" s="1">
-        <v>1.0841883420944214</v>
-      </c>
-      <c r="AF2" s="1">
+      <c r="AI2" s="1">
+        <v>1.1037256717681885</v>
+      </c>
+      <c r="AJ2" s="1">
         <v>1</v>
       </c>
-      <c r="AG2" s="1">
+      <c r="AK2" s="1">
         <v>1</v>
       </c>
-      <c r="AH2" s="1">
+      <c r="AL2" s="1">
+        <v>0.92706435918807983</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>0.87744337320327759</v>
+      </c>
+      <c r="AN2" s="1">
         <v>1.1157907247543335</v>
       </c>
-      <c r="AI2" s="1">
+      <c r="AO2" s="1">
         <v>1.0813137292861938</v>
       </c>
-      <c r="AJ2" s="1">
+      <c r="AP2" s="1">
         <v>1.0513279438018799</v>
       </c>
-      <c r="AK2" s="1">
+      <c r="AQ2" s="1">
         <v>1.0398087501525879</v>
       </c>
     </row>
@@ -472,48 +526,66 @@
         <v>1.1188783645629883</v>
       </c>
       <c r="W3" s="1">
-        <v>1.061396598815918</v>
+        <v>1.0805232524871826</v>
       </c>
       <c r="X3" s="1">
         <v>1.0890088081359863</v>
       </c>
       <c r="Y3" s="1">
-        <v>1.0125110149383545</v>
+        <v>1.0307567119598389</v>
       </c>
       <c r="Z3" s="1">
+        <v>1.0746762752532959</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>1.1354511976242065</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>1.2024320363998413</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>1.2268815040588379</v>
+      </c>
+      <c r="AD3" s="1">
         <v>1.2299177646636963</v>
       </c>
-      <c r="AA3" s="1">
-        <v>1.1306803226470947</v>
-      </c>
-      <c r="AB3" s="1">
+      <c r="AE3" s="1">
+        <v>1.1510554552078247</v>
+      </c>
+      <c r="AF3" s="1">
         <v>1.1575164794921875</v>
       </c>
-      <c r="AC3" s="1">
-        <v>1.0860186815261841</v>
-      </c>
-      <c r="AD3" s="1">
+      <c r="AG3" s="1">
+        <v>1.1055889129638672</v>
+      </c>
+      <c r="AH3" s="1">
         <v>1.0686477422714233</v>
       </c>
-      <c r="AE3" s="1">
-        <v>1.0481462478637695</v>
-      </c>
-      <c r="AF3" s="1">
+      <c r="AI3" s="1">
+        <v>1.067034125328064</v>
+      </c>
+      <c r="AJ3" s="1">
         <v>1</v>
       </c>
-      <c r="AG3" s="1">
+      <c r="AK3" s="1">
         <v>1</v>
       </c>
-      <c r="AH3" s="1">
+      <c r="AL3" s="1">
+        <v>0.93051278591156006</v>
+      </c>
+      <c r="AM3" s="1">
+        <v>0.88070714473724365</v>
+      </c>
+      <c r="AN3" s="1">
         <v>1.0992417335510254</v>
       </c>
-      <c r="AI3" s="1">
+      <c r="AO3" s="1">
         <v>1.065276026725769</v>
       </c>
-      <c r="AJ3" s="1">
+      <c r="AP3" s="1">
         <v>1.034532904624939</v>
       </c>
-      <c r="AK3" s="1">
+      <c r="AQ3" s="1">
         <v>1.0231977701187134</v>
       </c>
     </row>
